--- a/5/1/1/2/Agregados saldos 1985 a 2021 - Trimestral.xlsx
+++ b/5/1/1/2/Agregados saldos 1985 a 2021 - Trimestral.xlsx
@@ -1371,7 +1371,7 @@
         <v>109</v>
       </c>
       <c r="C11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>61</v>
@@ -1427,7 +1427,7 @@
         <v>107</v>
       </c>
       <c r="C12">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12">
         <v>105</v>
@@ -1607,7 +1607,7 @@
         <v>343</v>
       </c>
       <c r="I15">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J15">
         <v>769</v>
@@ -1654,7 +1654,7 @@
         <v>161</v>
       </c>
       <c r="C16">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D16">
         <v>115</v>
@@ -1775,7 +1775,7 @@
         <v>186</v>
       </c>
       <c r="C18">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D18">
         <v>184</v>
@@ -1899,7 +1899,7 @@
         <v>186</v>
       </c>
       <c r="C20">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D20">
         <v>149</v>
@@ -2023,7 +2023,7 @@
         <v>232</v>
       </c>
       <c r="C22">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D22">
         <v>199</v>
@@ -2035,7 +2035,7 @@
         <v>573</v>
       </c>
       <c r="I22">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J22">
         <v>1366</v>
@@ -2085,7 +2085,7 @@
         <v>224</v>
       </c>
       <c r="C23">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23">
         <v>166</v>
@@ -2147,7 +2147,7 @@
         <v>224</v>
       </c>
       <c r="C24">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D24">
         <v>178</v>
@@ -2209,7 +2209,7 @@
         <v>284</v>
       </c>
       <c r="C25">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -2271,7 +2271,7 @@
         <v>313</v>
       </c>
       <c r="C26">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D26">
         <v>363</v>
@@ -2395,7 +2395,7 @@
         <v>291</v>
       </c>
       <c r="C28">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D28">
         <v>220</v>
@@ -2454,7 +2454,7 @@
         <v>368</v>
       </c>
       <c r="C29">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D29">
         <v>379</v>
@@ -2513,7 +2513,7 @@
         <v>376</v>
       </c>
       <c r="C30">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D30">
         <v>694</v>
@@ -2572,7 +2572,7 @@
         <v>377</v>
       </c>
       <c r="C31">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D31">
         <v>297</v>
@@ -2690,7 +2690,7 @@
         <v>480</v>
       </c>
       <c r="C33">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D33">
         <v>898</v>
@@ -2749,7 +2749,7 @@
         <v>457</v>
       </c>
       <c r="C34">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D34">
         <v>929</v>
@@ -2808,7 +2808,7 @@
         <v>453</v>
       </c>
       <c r="C35">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D35">
         <v>878</v>
@@ -2867,7 +2867,7 @@
         <v>451</v>
       </c>
       <c r="C36">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D36">
         <v>865</v>
@@ -2926,7 +2926,7 @@
         <v>581</v>
       </c>
       <c r="C37">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D37">
         <v>1086</v>
@@ -2985,7 +2985,7 @@
         <v>581</v>
       </c>
       <c r="C38">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D38">
         <v>1028</v>
@@ -3044,7 +3044,7 @@
         <v>523</v>
       </c>
       <c r="C39">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D39">
         <v>1037</v>
@@ -3103,7 +3103,7 @@
         <v>557</v>
       </c>
       <c r="C40">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D40">
         <v>1043</v>
@@ -3221,7 +3221,7 @@
         <v>652</v>
       </c>
       <c r="C42">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="D42">
         <v>1168</v>
@@ -3280,7 +3280,7 @@
         <v>656</v>
       </c>
       <c r="C43">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D43">
         <v>1183</v>
@@ -3398,7 +3398,7 @@
         <v>783</v>
       </c>
       <c r="C45">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D45">
         <v>1439</v>
@@ -3516,7 +3516,7 @@
         <v>755</v>
       </c>
       <c r="C47">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D47">
         <v>1442</v>
@@ -3528,7 +3528,7 @@
         <v>2492</v>
       </c>
       <c r="I47">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="J47">
         <v>7455</v>
@@ -3575,7 +3575,7 @@
         <v>711</v>
       </c>
       <c r="C48">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D48">
         <v>1469</v>
@@ -3587,7 +3587,7 @@
         <v>2470</v>
       </c>
       <c r="I48">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="J48">
         <v>7610</v>
@@ -3634,7 +3634,7 @@
         <v>857</v>
       </c>
       <c r="C49">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D49">
         <v>1687</v>
@@ -3693,7 +3693,7 @@
         <v>809</v>
       </c>
       <c r="C50">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D50">
         <v>1781</v>
@@ -3752,7 +3752,7 @@
         <v>834</v>
       </c>
       <c r="C51">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D51">
         <v>1816</v>
@@ -3764,7 +3764,7 @@
         <v>2991</v>
       </c>
       <c r="I51">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="J51">
         <v>8756</v>
@@ -3811,7 +3811,7 @@
         <v>812</v>
       </c>
       <c r="C52">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D52">
         <v>1879</v>
@@ -3823,7 +3823,7 @@
         <v>3001</v>
       </c>
       <c r="I52">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="J52">
         <v>9322</v>
@@ -3870,7 +3870,7 @@
         <v>982</v>
       </c>
       <c r="C53">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D53">
         <v>1980</v>
@@ -3882,7 +3882,7 @@
         <v>3334</v>
       </c>
       <c r="I53">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="J53">
         <v>9814</v>
@@ -3929,7 +3929,7 @@
         <v>896</v>
       </c>
       <c r="C54">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D54">
         <v>1861</v>
@@ -3988,7 +3988,7 @@
         <v>900</v>
       </c>
       <c r="C55">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D55">
         <v>1879</v>
@@ -4000,7 +4000,7 @@
         <v>3171</v>
       </c>
       <c r="I55">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="J55">
         <v>10968</v>
@@ -4047,7 +4047,7 @@
         <v>825</v>
       </c>
       <c r="C56">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D56">
         <v>1578</v>
@@ -4106,7 +4106,7 @@
         <v>973</v>
       </c>
       <c r="C57">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D57">
         <v>1820</v>
@@ -4165,7 +4165,7 @@
         <v>896</v>
       </c>
       <c r="C58">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D58">
         <v>1778</v>
@@ -4224,7 +4224,7 @@
         <v>884</v>
       </c>
       <c r="C59">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D59">
         <v>1990</v>
@@ -4236,7 +4236,7 @@
         <v>3343</v>
       </c>
       <c r="I59">
-        <v>3286</v>
+        <v>3289</v>
       </c>
       <c r="J59">
         <v>12368</v>
@@ -4283,7 +4283,7 @@
         <v>886</v>
       </c>
       <c r="C60">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="D60">
         <v>1806</v>
@@ -4410,7 +4410,7 @@
         <v>1018</v>
       </c>
       <c r="C62">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="D62">
         <v>1929</v>
@@ -4422,7 +4422,7 @@
         <v>3449</v>
       </c>
       <c r="I62">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="J62">
         <v>12863</v>
@@ -4484,7 +4484,7 @@
         <v>1005</v>
       </c>
       <c r="C63">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D63">
         <v>1947</v>
@@ -4496,7 +4496,7 @@
         <v>3412</v>
       </c>
       <c r="I63">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="J63">
         <v>13357</v>
@@ -4632,7 +4632,7 @@
         <v>1127</v>
       </c>
       <c r="C65">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="D65">
         <v>2371</v>
@@ -4644,7 +4644,7 @@
         <v>4145</v>
       </c>
       <c r="I65">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="J65">
         <v>13861</v>
@@ -4706,7 +4706,7 @@
         <v>1075</v>
       </c>
       <c r="C66">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="D66">
         <v>2335</v>
@@ -4780,7 +4780,7 @@
         <v>1084</v>
       </c>
       <c r="C67">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D67">
         <v>2471</v>
@@ -4792,7 +4792,7 @@
         <v>4179</v>
       </c>
       <c r="I67">
-        <v>4099</v>
+        <v>4101</v>
       </c>
       <c r="J67">
         <v>14085</v>
@@ -4854,7 +4854,7 @@
         <v>1070</v>
       </c>
       <c r="C68">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D68">
         <v>2280</v>
@@ -4866,7 +4866,7 @@
         <v>3813</v>
       </c>
       <c r="I68">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="J68">
         <v>14053</v>
@@ -4928,7 +4928,7 @@
         <v>1231</v>
       </c>
       <c r="C69">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D69">
         <v>2666</v>
@@ -5002,7 +5002,7 @@
         <v>1187</v>
       </c>
       <c r="C70">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="D70">
         <v>2458</v>
@@ -5014,7 +5014,7 @@
         <v>4287</v>
       </c>
       <c r="I70">
-        <v>4223</v>
+        <v>4225</v>
       </c>
       <c r="J70">
         <v>14624</v>
@@ -5076,7 +5076,7 @@
         <v>1177</v>
       </c>
       <c r="C71">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="D71">
         <v>2549</v>
@@ -5088,7 +5088,7 @@
         <v>4456</v>
       </c>
       <c r="I71">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="J71">
         <v>14611</v>
@@ -5150,7 +5150,7 @@
         <v>1163</v>
       </c>
       <c r="C72">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="D72">
         <v>2669</v>
@@ -5224,7 +5224,7 @@
         <v>1320</v>
       </c>
       <c r="C73">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D73">
         <v>2944</v>
@@ -5301,7 +5301,7 @@
         <v>1253</v>
       </c>
       <c r="C74">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D74">
         <v>3203</v>
@@ -5378,7 +5378,7 @@
         <v>1246</v>
       </c>
       <c r="C75">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="D75">
         <v>3154</v>
@@ -5467,7 +5467,7 @@
         <v>5222</v>
       </c>
       <c r="I76">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="J76">
         <v>13861</v>
@@ -5532,7 +5532,7 @@
         <v>1407</v>
       </c>
       <c r="C77">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D77">
         <v>3291</v>
@@ -5544,7 +5544,7 @@
         <v>5792</v>
       </c>
       <c r="I77">
-        <v>5627</v>
+        <v>5629</v>
       </c>
       <c r="J77">
         <v>14008</v>
@@ -5609,7 +5609,7 @@
         <v>1327</v>
       </c>
       <c r="C78">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="D78">
         <v>3335</v>
@@ -5621,7 +5621,7 @@
         <v>5970</v>
       </c>
       <c r="I78">
-        <v>5970</v>
+        <v>5971</v>
       </c>
       <c r="J78">
         <v>14728</v>
@@ -5686,7 +5686,7 @@
         <v>1354</v>
       </c>
       <c r="C79">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D79">
         <v>3783</v>
@@ -5698,7 +5698,7 @@
         <v>6480</v>
       </c>
       <c r="I79">
-        <v>6433</v>
+        <v>6435</v>
       </c>
       <c r="J79">
         <v>14978</v>
@@ -5763,7 +5763,7 @@
         <v>1373</v>
       </c>
       <c r="C80">
-        <v>1430</v>
+        <v>1439</v>
       </c>
       <c r="D80">
         <v>3417</v>
@@ -5840,7 +5840,7 @@
         <v>1627</v>
       </c>
       <c r="C81">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="D81">
         <v>3886</v>
@@ -5852,7 +5852,7 @@
         <v>7149</v>
       </c>
       <c r="I81">
-        <v>6909</v>
+        <v>6910</v>
       </c>
       <c r="J81">
         <v>17229</v>
@@ -5917,7 +5917,7 @@
         <v>1534</v>
       </c>
       <c r="C82">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="D82">
         <v>4088</v>
@@ -5994,7 +5994,7 @@
         <v>1572</v>
       </c>
       <c r="C83">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D83">
         <v>4032</v>
@@ -6071,7 +6071,7 @@
         <v>1659</v>
       </c>
       <c r="C84">
-        <v>1688</v>
+        <v>1699</v>
       </c>
       <c r="D84">
         <v>3865</v>
@@ -6160,7 +6160,7 @@
         <v>7914</v>
       </c>
       <c r="I85">
-        <v>7647</v>
+        <v>7648</v>
       </c>
       <c r="J85">
         <v>23040</v>
@@ -6225,7 +6225,7 @@
         <v>1814</v>
       </c>
       <c r="C86">
-        <v>1783</v>
+        <v>1787</v>
       </c>
       <c r="D86">
         <v>4539</v>
@@ -6409,7 +6409,7 @@
         <v>1864</v>
       </c>
       <c r="C88">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="D88">
         <v>4647</v>
@@ -6501,7 +6501,7 @@
         <v>2149</v>
       </c>
       <c r="C89">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="D89">
         <v>5161</v>
@@ -6513,7 +6513,7 @@
         <v>9221</v>
       </c>
       <c r="I89">
-        <v>8910</v>
+        <v>8912</v>
       </c>
       <c r="J89">
         <v>27764</v>
@@ -6593,7 +6593,7 @@
         <v>2068</v>
       </c>
       <c r="C90">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="D90">
         <v>5413</v>
@@ -6605,7 +6605,7 @@
         <v>9359</v>
       </c>
       <c r="I90">
-        <v>9321</v>
+        <v>9320</v>
       </c>
       <c r="J90">
         <v>29351</v>
@@ -6685,7 +6685,7 @@
         <v>2115</v>
       </c>
       <c r="C91">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="D91">
         <v>5350</v>
@@ -6697,7 +6697,7 @@
         <v>9548</v>
       </c>
       <c r="I91">
-        <v>9453</v>
+        <v>9452</v>
       </c>
       <c r="J91">
         <v>30928</v>
@@ -6777,7 +6777,7 @@
         <v>2104</v>
       </c>
       <c r="C92">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="D92">
         <v>5423</v>
@@ -6789,7 +6789,7 @@
         <v>9744</v>
       </c>
       <c r="I92">
-        <v>9845</v>
+        <v>9844</v>
       </c>
       <c r="J92">
         <v>31750</v>
@@ -6869,7 +6869,7 @@
         <v>2429</v>
       </c>
       <c r="C93">
-        <v>2240</v>
+        <v>2234</v>
       </c>
       <c r="D93">
         <v>6101</v>
@@ -6881,7 +6881,7 @@
         <v>10797</v>
       </c>
       <c r="I93">
-        <v>10381</v>
+        <v>10383</v>
       </c>
       <c r="J93">
         <v>34802</v>
@@ -6961,7 +6961,7 @@
         <v>2309</v>
       </c>
       <c r="C94">
-        <v>2309</v>
+        <v>2298</v>
       </c>
       <c r="D94">
         <v>6080</v>
@@ -7074,7 +7074,7 @@
         <v>2350</v>
       </c>
       <c r="C95">
-        <v>2390</v>
+        <v>2383</v>
       </c>
       <c r="D95">
         <v>6411</v>
@@ -7187,7 +7187,7 @@
         <v>2316</v>
       </c>
       <c r="C96">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="D96">
         <v>6328</v>
@@ -7300,7 +7300,7 @@
         <v>2676</v>
       </c>
       <c r="C97">
-        <v>2505</v>
+        <v>2501</v>
       </c>
       <c r="D97">
         <v>6463</v>
@@ -7318,7 +7318,7 @@
         <v>11093</v>
       </c>
       <c r="I97">
-        <v>10862</v>
+        <v>10866</v>
       </c>
       <c r="J97">
         <v>41172</v>
@@ -7413,7 +7413,7 @@
         <v>2515</v>
       </c>
       <c r="C98">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="D98">
         <v>6739</v>
@@ -7526,7 +7526,7 @@
         <v>2574</v>
       </c>
       <c r="C99">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="D99">
         <v>7277</v>
@@ -7544,7 +7544,7 @@
         <v>12150</v>
       </c>
       <c r="I99">
-        <v>12041</v>
+        <v>12042</v>
       </c>
       <c r="J99">
         <v>38937</v>
@@ -7639,7 +7639,7 @@
         <v>2591</v>
       </c>
       <c r="C100">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="D100">
         <v>7480</v>
@@ -7657,7 +7657,7 @@
         <v>12740</v>
       </c>
       <c r="I100">
-        <v>13127</v>
+        <v>13128</v>
       </c>
       <c r="J100">
         <v>37833</v>
@@ -7752,7 +7752,7 @@
         <v>2935</v>
       </c>
       <c r="C101">
-        <v>2755</v>
+        <v>2760</v>
       </c>
       <c r="D101">
         <v>8392</v>
@@ -7770,7 +7770,7 @@
         <v>14205</v>
       </c>
       <c r="I101">
-        <v>13876</v>
+        <v>13875</v>
       </c>
       <c r="J101">
         <v>37759</v>
@@ -7865,7 +7865,7 @@
         <v>2929</v>
       </c>
       <c r="C102">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="D102">
         <v>8713</v>
@@ -7978,7 +7978,7 @@
         <v>3043</v>
       </c>
       <c r="C103">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="D103">
         <v>9694</v>
@@ -7996,7 +7996,7 @@
         <v>15955</v>
       </c>
       <c r="I103">
-        <v>15821</v>
+        <v>15834</v>
       </c>
       <c r="J103">
         <v>38219</v>
@@ -8091,7 +8091,7 @@
         <v>3052</v>
       </c>
       <c r="C104">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="D104">
         <v>9212</v>
@@ -8109,7 +8109,7 @@
         <v>15774</v>
       </c>
       <c r="I104">
-        <v>16151</v>
+        <v>16152</v>
       </c>
       <c r="J104">
         <v>38242</v>
@@ -8204,7 +8204,7 @@
         <v>3423</v>
       </c>
       <c r="C105">
-        <v>3171</v>
+        <v>3180</v>
       </c>
       <c r="D105">
         <v>10026</v>
@@ -8222,7 +8222,7 @@
         <v>16888</v>
       </c>
       <c r="I105">
-        <v>16380</v>
+        <v>16381</v>
       </c>
       <c r="J105">
         <v>40248</v>
@@ -8317,7 +8317,7 @@
         <v>3205</v>
       </c>
       <c r="C106">
-        <v>3226</v>
+        <v>3237</v>
       </c>
       <c r="D106">
         <v>10226</v>
@@ -8335,7 +8335,7 @@
         <v>16806</v>
       </c>
       <c r="I106">
-        <v>16900</v>
+        <v>16898</v>
       </c>
       <c r="J106">
         <v>42109</v>
@@ -8430,7 +8430,7 @@
         <v>3307</v>
       </c>
       <c r="C107">
-        <v>3304</v>
+        <v>3312</v>
       </c>
       <c r="D107">
         <v>10489</v>
@@ -8448,7 +8448,7 @@
         <v>17425</v>
       </c>
       <c r="I107">
-        <v>17163</v>
+        <v>17190</v>
       </c>
       <c r="J107">
         <v>44742</v>
@@ -8543,7 +8543,7 @@
         <v>3494</v>
       </c>
       <c r="C108">
-        <v>3504</v>
+        <v>3506</v>
       </c>
       <c r="D108">
         <v>10406</v>
@@ -8561,7 +8561,7 @@
         <v>17410</v>
       </c>
       <c r="I108">
-        <v>17802</v>
+        <v>17801</v>
       </c>
       <c r="J108">
         <v>48852</v>
@@ -8656,7 +8656,7 @@
         <v>3892</v>
       </c>
       <c r="C109">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="D109">
         <v>11166</v>
@@ -8674,7 +8674,7 @@
         <v>18839</v>
       </c>
       <c r="I109">
-        <v>18177</v>
+        <v>18175</v>
       </c>
       <c r="J109">
         <v>51828</v>
@@ -8769,7 +8769,7 @@
         <v>3747</v>
       </c>
       <c r="C110">
-        <v>3719</v>
+        <v>3725</v>
       </c>
       <c r="D110">
         <v>11507</v>
@@ -8787,7 +8787,7 @@
         <v>18902</v>
       </c>
       <c r="I110">
-        <v>18741</v>
+        <v>18736</v>
       </c>
       <c r="J110">
         <v>53128</v>
@@ -8882,7 +8882,7 @@
         <v>3926</v>
       </c>
       <c r="C111">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="D111">
         <v>11550</v>
@@ -8900,7 +8900,7 @@
         <v>18593</v>
       </c>
       <c r="I111">
-        <v>18206</v>
+        <v>18249</v>
       </c>
       <c r="J111">
         <v>57509</v>
@@ -8995,7 +8995,7 @@
         <v>4007</v>
       </c>
       <c r="C112">
-        <v>3987</v>
+        <v>3960</v>
       </c>
       <c r="D112">
         <v>11121</v>
@@ -9013,7 +9013,7 @@
         <v>18606</v>
       </c>
       <c r="I112">
-        <v>18737</v>
+        <v>18735</v>
       </c>
       <c r="J112">
         <v>58568</v>
@@ -9108,7 +9108,7 @@
         <v>4480</v>
       </c>
       <c r="C113">
-        <v>4197</v>
+        <v>4186</v>
       </c>
       <c r="D113">
         <v>12831</v>
@@ -9126,7 +9126,7 @@
         <v>20560</v>
       </c>
       <c r="I113">
-        <v>19565</v>
+        <v>19563</v>
       </c>
       <c r="J113">
         <v>58201</v>
@@ -9221,7 +9221,7 @@
         <v>4339</v>
       </c>
       <c r="C114">
-        <v>4319</v>
+        <v>4308</v>
       </c>
       <c r="D114">
         <v>12181</v>
@@ -9334,7 +9334,7 @@
         <v>4451</v>
       </c>
       <c r="C115">
-        <v>4455</v>
+        <v>4446</v>
       </c>
       <c r="D115">
         <v>12715</v>
@@ -9352,7 +9352,7 @@
         <v>21266</v>
       </c>
       <c r="I115">
-        <v>20827</v>
+        <v>20892</v>
       </c>
       <c r="J115">
         <v>62591</v>
@@ -9447,7 +9447,7 @@
         <v>4557</v>
       </c>
       <c r="C116">
-        <v>4664</v>
+        <v>4627</v>
       </c>
       <c r="D116">
         <v>12671</v>
@@ -9465,7 +9465,7 @@
         <v>21250</v>
       </c>
       <c r="I116">
-        <v>21526</v>
+        <v>21523</v>
       </c>
       <c r="J116">
         <v>63718</v>
@@ -9560,7 +9560,7 @@
         <v>4985</v>
       </c>
       <c r="C117">
-        <v>4753</v>
+        <v>4751</v>
       </c>
       <c r="D117">
         <v>14185</v>
@@ -9578,7 +9578,7 @@
         <v>22784</v>
       </c>
       <c r="I117">
-        <v>21822</v>
+        <v>21816</v>
       </c>
       <c r="J117">
         <v>64533</v>
@@ -9673,7 +9673,7 @@
         <v>4794</v>
       </c>
       <c r="C118">
-        <v>4822</v>
+        <v>4810</v>
       </c>
       <c r="D118">
         <v>13702</v>
@@ -9691,7 +9691,7 @@
         <v>22955</v>
       </c>
       <c r="I118">
-        <v>22644</v>
+        <v>22640</v>
       </c>
       <c r="J118">
         <v>65849</v>
@@ -9786,7 +9786,7 @@
         <v>4861</v>
       </c>
       <c r="C119">
-        <v>4905</v>
+        <v>4896</v>
       </c>
       <c r="D119">
         <v>13958</v>
@@ -9804,7 +9804,7 @@
         <v>23164</v>
       </c>
       <c r="I119">
-        <v>22760</v>
+        <v>22827</v>
       </c>
       <c r="J119">
         <v>64741</v>
@@ -9899,7 +9899,7 @@
         <v>4827</v>
       </c>
       <c r="C120">
-        <v>4992</v>
+        <v>4974</v>
       </c>
       <c r="D120">
         <v>13989</v>
@@ -9917,7 +9917,7 @@
         <v>23309</v>
       </c>
       <c r="I120">
-        <v>23939</v>
+        <v>23936</v>
       </c>
       <c r="J120">
         <v>66362</v>
@@ -10012,7 +10012,7 @@
         <v>5371</v>
       </c>
       <c r="C121">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="D121">
         <v>15640</v>
@@ -10030,7 +10030,7 @@
         <v>25824</v>
       </c>
       <c r="I121">
-        <v>24853</v>
+        <v>24856</v>
       </c>
       <c r="J121">
         <v>69350</v>
@@ -10125,7 +10125,7 @@
         <v>5230</v>
       </c>
       <c r="C122">
-        <v>5291</v>
+        <v>5286</v>
       </c>
       <c r="D122">
         <v>15646</v>
@@ -10143,7 +10143,7 @@
         <v>25703</v>
       </c>
       <c r="I122">
-        <v>25547</v>
+        <v>25546</v>
       </c>
       <c r="J122">
         <v>70310</v>
@@ -10238,7 +10238,7 @@
         <v>5444</v>
       </c>
       <c r="C123">
-        <v>5495</v>
+        <v>5496</v>
       </c>
       <c r="D123">
         <v>16196</v>
@@ -10256,7 +10256,7 @@
         <v>26774</v>
       </c>
       <c r="I123">
-        <v>26539</v>
+        <v>26606</v>
       </c>
       <c r="J123">
         <v>71588</v>
@@ -10351,7 +10351,7 @@
         <v>5402</v>
       </c>
       <c r="C124">
-        <v>5549</v>
+        <v>5557</v>
       </c>
       <c r="D124">
         <v>16084</v>
@@ -10464,7 +10464,7 @@
         <v>5858</v>
       </c>
       <c r="C125">
-        <v>5601</v>
+        <v>5618</v>
       </c>
       <c r="D125">
         <v>17818</v>
@@ -10482,7 +10482,7 @@
         <v>29419</v>
       </c>
       <c r="I125">
-        <v>28303</v>
+        <v>28297</v>
       </c>
       <c r="J125">
         <v>77498</v>
@@ -10577,7 +10577,7 @@
         <v>5659</v>
       </c>
       <c r="C126">
-        <v>5716</v>
+        <v>5731</v>
       </c>
       <c r="D126">
         <v>17006</v>
@@ -10595,7 +10595,7 @@
         <v>28259</v>
       </c>
       <c r="I126">
-        <v>28286</v>
+        <v>28287</v>
       </c>
       <c r="J126">
         <v>80175</v>
@@ -10690,7 +10690,7 @@
         <v>5743</v>
       </c>
       <c r="C127">
-        <v>5722</v>
+        <v>5734</v>
       </c>
       <c r="D127">
         <v>17030</v>
@@ -10708,7 +10708,7 @@
         <v>28201</v>
       </c>
       <c r="I127">
-        <v>27972</v>
+        <v>28018</v>
       </c>
       <c r="J127">
         <v>80916</v>
@@ -10803,7 +10803,7 @@
         <v>5885</v>
       </c>
       <c r="C128">
-        <v>5878</v>
+        <v>5904</v>
       </c>
       <c r="D128">
         <v>16696</v>
@@ -10821,7 +10821,7 @@
         <v>27602</v>
       </c>
       <c r="I128">
-        <v>28344</v>
+        <v>28342</v>
       </c>
       <c r="J128">
         <v>83417</v>
@@ -10916,7 +10916,7 @@
         <v>6275</v>
       </c>
       <c r="C129">
-        <v>5949</v>
+        <v>5953</v>
       </c>
       <c r="D129">
         <v>18457</v>
@@ -11029,7 +11029,7 @@
         <v>6050</v>
       </c>
       <c r="C130">
-        <v>6004</v>
+        <v>6020</v>
       </c>
       <c r="D130">
         <v>18505</v>
@@ -11047,7 +11047,7 @@
         <v>29789</v>
       </c>
       <c r="I130">
-        <v>29729</v>
+        <v>29737</v>
       </c>
       <c r="J130">
         <v>82627</v>
@@ -11142,7 +11142,7 @@
         <v>6119</v>
       </c>
       <c r="C131">
-        <v>6045</v>
+        <v>6058</v>
       </c>
       <c r="D131">
         <v>19194</v>
@@ -11160,7 +11160,7 @@
         <v>31099</v>
       </c>
       <c r="I131">
-        <v>30669</v>
+        <v>30694</v>
       </c>
       <c r="J131">
         <v>83373</v>
@@ -11255,7 +11255,7 @@
         <v>6125</v>
       </c>
       <c r="C132">
-        <v>6081</v>
+        <v>6082</v>
       </c>
       <c r="D132">
         <v>18779</v>
@@ -11273,7 +11273,7 @@
         <v>30890</v>
       </c>
       <c r="I132">
-        <v>31390</v>
+        <v>31391</v>
       </c>
       <c r="J132">
         <v>87209</v>
@@ -11368,7 +11368,7 @@
         <v>6528</v>
       </c>
       <c r="C133">
-        <v>6195</v>
+        <v>6186</v>
       </c>
       <c r="D133">
         <v>20424</v>
@@ -11386,7 +11386,7 @@
         <v>33566</v>
       </c>
       <c r="I133">
-        <v>32385</v>
+        <v>32389</v>
       </c>
       <c r="J133">
         <v>85719</v>
@@ -11481,7 +11481,7 @@
         <v>6353</v>
       </c>
       <c r="C134">
-        <v>6329</v>
+        <v>6333</v>
       </c>
       <c r="D134">
         <v>20688</v>
@@ -11499,7 +11499,7 @@
         <v>33747</v>
       </c>
       <c r="I134">
-        <v>33576</v>
+        <v>33589</v>
       </c>
       <c r="J134">
         <v>91499</v>
@@ -11594,7 +11594,7 @@
         <v>6345</v>
       </c>
       <c r="C135">
-        <v>6327</v>
+        <v>6322</v>
       </c>
       <c r="D135">
         <v>21425</v>
@@ -11612,7 +11612,7 @@
         <v>34887</v>
       </c>
       <c r="I135">
-        <v>34233</v>
+        <v>34230</v>
       </c>
       <c r="J135">
         <v>89908</v>
@@ -11707,7 +11707,7 @@
         <v>6412</v>
       </c>
       <c r="C136">
-        <v>6385</v>
+        <v>6370</v>
       </c>
       <c r="D136">
         <v>21125</v>
@@ -11725,7 +11725,7 @@
         <v>34554</v>
       </c>
       <c r="I136">
-        <v>34846</v>
+        <v>34842</v>
       </c>
       <c r="J136">
         <v>93121</v>
@@ -11820,7 +11820,7 @@
         <v>6740</v>
       </c>
       <c r="C137">
-        <v>6459</v>
+        <v>6451</v>
       </c>
       <c r="D137">
         <v>22634</v>
@@ -11838,7 +11838,7 @@
         <v>36856</v>
       </c>
       <c r="I137">
-        <v>35492</v>
+        <v>35499</v>
       </c>
       <c r="J137">
         <v>96004</v>
@@ -11933,7 +11933,7 @@
         <v>6531</v>
       </c>
       <c r="C138">
-        <v>6477</v>
+        <v>6462</v>
       </c>
       <c r="D138">
         <v>22552</v>
@@ -11951,7 +11951,7 @@
         <v>36803</v>
       </c>
       <c r="I138">
-        <v>36707</v>
+        <v>36737</v>
       </c>
       <c r="J138">
         <v>95405</v>
@@ -12046,7 +12046,7 @@
         <v>6614</v>
       </c>
       <c r="C139">
-        <v>6609</v>
+        <v>6597</v>
       </c>
       <c r="D139">
         <v>23301</v>
@@ -12064,7 +12064,7 @@
         <v>38159</v>
       </c>
       <c r="I139">
-        <v>37203</v>
+        <v>37196</v>
       </c>
       <c r="J139">
         <v>96166</v>
@@ -12159,7 +12159,7 @@
         <v>6776</v>
       </c>
       <c r="C140">
-        <v>6944</v>
+        <v>6918</v>
       </c>
       <c r="D140">
         <v>24490</v>
@@ -12177,7 +12177,7 @@
         <v>39372</v>
       </c>
       <c r="I140">
-        <v>39788</v>
+        <v>39780</v>
       </c>
       <c r="J140">
         <v>99435</v>
@@ -12272,7 +12272,7 @@
         <v>7575</v>
       </c>
       <c r="C141">
-        <v>7385</v>
+        <v>7392</v>
       </c>
       <c r="D141">
         <v>26853</v>
@@ -12290,7 +12290,7 @@
         <v>43633</v>
       </c>
       <c r="I141">
-        <v>42613</v>
+        <v>42616</v>
       </c>
       <c r="J141">
         <v>102259</v>
@@ -12385,7 +12385,7 @@
         <v>7734</v>
       </c>
       <c r="C142">
-        <v>7837</v>
+        <v>7828</v>
       </c>
       <c r="D142">
         <v>29536</v>
@@ -12403,7 +12403,7 @@
         <v>46653</v>
       </c>
       <c r="I142">
-        <v>46989</v>
+        <v>47036</v>
       </c>
       <c r="J142">
         <v>101671</v>
@@ -12498,7 +12498,7 @@
         <v>8708</v>
       </c>
       <c r="C143">
-        <v>8767</v>
+        <v>8774</v>
       </c>
       <c r="D143">
         <v>34629</v>
@@ -12516,7 +12516,7 @@
         <v>52956</v>
       </c>
       <c r="I143">
-        <v>51804</v>
+        <v>51785</v>
       </c>
       <c r="J143">
         <v>92682</v>
@@ -12611,7 +12611,7 @@
         <v>11257</v>
       </c>
       <c r="C144">
-        <v>11570</v>
+        <v>11613</v>
       </c>
       <c r="D144">
         <v>37542</v>
@@ -12629,7 +12629,7 @@
         <v>63423</v>
       </c>
       <c r="I144">
-        <v>65194</v>
+        <v>65179</v>
       </c>
       <c r="J144">
         <v>80015</v>
@@ -12724,7 +12724,7 @@
         <v>12180</v>
       </c>
       <c r="C145">
-        <v>11822</v>
+        <v>11880</v>
       </c>
       <c r="D145">
         <v>39185</v>
@@ -12742,7 +12742,7 @@
         <v>68573</v>
       </c>
       <c r="I145">
-        <v>67334</v>
+        <v>67340</v>
       </c>
       <c r="J145">
         <v>77447</v>
@@ -12837,7 +12837,7 @@
         <v>12555</v>
       </c>
       <c r="C146">
-        <v>12756</v>
+        <v>12765</v>
       </c>
       <c r="D146">
         <v>41127</v>
@@ -12855,7 +12855,7 @@
         <v>70044</v>
       </c>
       <c r="I146">
-        <v>71015</v>
+        <v>71096</v>
       </c>
       <c r="J146">
         <v>75403</v>
@@ -12950,7 +12950,7 @@
         <v>14547</v>
       </c>
       <c r="C147">
-        <v>14555</v>
+        <v>14575</v>
       </c>
       <c r="D147">
         <v>45981</v>
@@ -12968,7 +12968,7 @@
         <v>80610</v>
       </c>
       <c r="I147">
-        <v>78974</v>
+        <v>78973</v>
       </c>
       <c r="J147">
         <v>70843</v>
@@ -12992,19 +12992,19 @@
         <v>10489</v>
       </c>
       <c r="Q147">
-        <v>21821</v>
+        <v>20477</v>
       </c>
       <c r="R147">
-        <v>1394</v>
+        <v>1363</v>
       </c>
       <c r="S147">
-        <v>15585</v>
+        <v>13643</v>
       </c>
       <c r="T147">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="U147">
-        <v>169481</v>
+        <v>170050</v>
       </c>
       <c r="V147">
         <v>25127</v>
@@ -13034,25 +13034,25 @@
         <v>219</v>
       </c>
       <c r="AE147">
-        <v>242</v>
+        <v>321</v>
       </c>
       <c r="AF147">
-        <v>32006</v>
+        <v>30972</v>
       </c>
       <c r="AG147">
-        <v>26153</v>
+        <v>25228</v>
       </c>
       <c r="AH147">
-        <v>3293</v>
+        <v>3421</v>
       </c>
       <c r="AI147">
-        <v>19017</v>
+        <v>17611</v>
       </c>
       <c r="AJ147">
-        <v>1292</v>
+        <v>1318</v>
       </c>
       <c r="AK147">
-        <v>282066</v>
+        <v>282263</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/1/2/Agregados saldos 1985 a 2021 - Trimestral.xlsx
+++ b/5/1/1/2/Agregados saldos 1985 a 2021 - Trimestral.xlsx
@@ -1654,7 +1654,7 @@
         <v>161</v>
       </c>
       <c r="C16">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D16">
         <v>115</v>
@@ -1713,7 +1713,7 @@
         <v>182</v>
       </c>
       <c r="C17">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17">
         <v>182</v>
@@ -1899,7 +1899,7 @@
         <v>186</v>
       </c>
       <c r="C20">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D20">
         <v>149</v>
@@ -1961,7 +1961,7 @@
         <v>222</v>
       </c>
       <c r="C21">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21">
         <v>191</v>
@@ -2147,7 +2147,7 @@
         <v>224</v>
       </c>
       <c r="C24">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D24">
         <v>178</v>
@@ -2333,7 +2333,7 @@
         <v>302</v>
       </c>
       <c r="C27">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D27">
         <v>203</v>
@@ -2395,7 +2395,7 @@
         <v>291</v>
       </c>
       <c r="C28">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D28">
         <v>220</v>
@@ -2454,7 +2454,7 @@
         <v>368</v>
       </c>
       <c r="C29">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D29">
         <v>379</v>
@@ -2631,7 +2631,7 @@
         <v>373</v>
       </c>
       <c r="C32">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D32">
         <v>292</v>
@@ -2643,7 +2643,7 @@
         <v>1021</v>
       </c>
       <c r="I32">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="J32">
         <v>3023</v>
@@ -2808,7 +2808,7 @@
         <v>453</v>
       </c>
       <c r="C35">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D35">
         <v>878</v>
@@ -2867,7 +2867,7 @@
         <v>451</v>
       </c>
       <c r="C36">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D36">
         <v>865</v>
@@ -2879,7 +2879,7 @@
         <v>1411</v>
       </c>
       <c r="I36">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="J36">
         <v>3952</v>
@@ -3044,7 +3044,7 @@
         <v>523</v>
       </c>
       <c r="C39">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D39">
         <v>1037</v>
@@ -3103,7 +3103,7 @@
         <v>557</v>
       </c>
       <c r="C40">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D40">
         <v>1043</v>
@@ -3174,7 +3174,7 @@
         <v>2096</v>
       </c>
       <c r="I41">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="J41">
         <v>4786</v>
@@ -3280,7 +3280,7 @@
         <v>656</v>
       </c>
       <c r="C43">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D43">
         <v>1183</v>
@@ -3339,7 +3339,7 @@
         <v>659</v>
       </c>
       <c r="C44">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D44">
         <v>1152</v>
@@ -3398,7 +3398,7 @@
         <v>783</v>
       </c>
       <c r="C45">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D45">
         <v>1439</v>
@@ -3457,7 +3457,7 @@
         <v>755</v>
       </c>
       <c r="C46">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D46">
         <v>1400</v>
@@ -3516,7 +3516,7 @@
         <v>755</v>
       </c>
       <c r="C47">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D47">
         <v>1442</v>
@@ -3575,7 +3575,7 @@
         <v>711</v>
       </c>
       <c r="C48">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D48">
         <v>1469</v>
@@ -3634,7 +3634,7 @@
         <v>857</v>
       </c>
       <c r="C49">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D49">
         <v>1687</v>
@@ -3693,7 +3693,7 @@
         <v>809</v>
       </c>
       <c r="C50">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D50">
         <v>1781</v>
@@ -3811,7 +3811,7 @@
         <v>812</v>
       </c>
       <c r="C52">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D52">
         <v>1879</v>
@@ -3870,7 +3870,7 @@
         <v>982</v>
       </c>
       <c r="C53">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D53">
         <v>1980</v>
@@ -3929,7 +3929,7 @@
         <v>896</v>
       </c>
       <c r="C54">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D54">
         <v>1861</v>
@@ -3988,7 +3988,7 @@
         <v>900</v>
       </c>
       <c r="C55">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D55">
         <v>1879</v>
@@ -4047,7 +4047,7 @@
         <v>825</v>
       </c>
       <c r="C56">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D56">
         <v>1578</v>
@@ -4106,7 +4106,7 @@
         <v>973</v>
       </c>
       <c r="C57">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D57">
         <v>1820</v>
@@ -4165,7 +4165,7 @@
         <v>896</v>
       </c>
       <c r="C58">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D58">
         <v>1778</v>
@@ -4283,7 +4283,7 @@
         <v>886</v>
       </c>
       <c r="C60">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D60">
         <v>1806</v>
@@ -4342,7 +4342,7 @@
         <v>1184</v>
       </c>
       <c r="C61">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D61">
         <v>2062</v>
@@ -4410,7 +4410,7 @@
         <v>1018</v>
       </c>
       <c r="C62">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D62">
         <v>1929</v>
@@ -4484,7 +4484,7 @@
         <v>1005</v>
       </c>
       <c r="C63">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D63">
         <v>1947</v>
@@ -4558,7 +4558,7 @@
         <v>991</v>
       </c>
       <c r="C64">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D64">
         <v>1946</v>
@@ -4632,7 +4632,7 @@
         <v>1127</v>
       </c>
       <c r="C65">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D65">
         <v>2371</v>
@@ -4706,7 +4706,7 @@
         <v>1075</v>
       </c>
       <c r="C66">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D66">
         <v>2335</v>
@@ -4928,7 +4928,7 @@
         <v>1231</v>
       </c>
       <c r="C69">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D69">
         <v>2666</v>
@@ -5150,7 +5150,7 @@
         <v>1163</v>
       </c>
       <c r="C72">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D72">
         <v>2669</v>
@@ -5224,7 +5224,7 @@
         <v>1320</v>
       </c>
       <c r="C73">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D73">
         <v>2944</v>
@@ -5301,7 +5301,7 @@
         <v>1253</v>
       </c>
       <c r="C74">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D74">
         <v>3203</v>
@@ -5455,7 +5455,7 @@
         <v>1204</v>
       </c>
       <c r="C76">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D76">
         <v>2853</v>
@@ -5532,7 +5532,7 @@
         <v>1407</v>
       </c>
       <c r="C77">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D77">
         <v>3291</v>
@@ -5686,7 +5686,7 @@
         <v>1354</v>
       </c>
       <c r="C79">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D79">
         <v>3783</v>
@@ -5698,7 +5698,7 @@
         <v>6480</v>
       </c>
       <c r="I79">
-        <v>6435</v>
+        <v>6434</v>
       </c>
       <c r="J79">
         <v>14978</v>
@@ -5763,7 +5763,7 @@
         <v>1373</v>
       </c>
       <c r="C80">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D80">
         <v>3417</v>
@@ -5840,7 +5840,7 @@
         <v>1627</v>
       </c>
       <c r="C81">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D81">
         <v>3886</v>
@@ -5994,7 +5994,7 @@
         <v>1572</v>
       </c>
       <c r="C83">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="D83">
         <v>4032</v>
@@ -6071,7 +6071,7 @@
         <v>1659</v>
       </c>
       <c r="C84">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="D84">
         <v>3865</v>
@@ -6225,7 +6225,7 @@
         <v>1814</v>
       </c>
       <c r="C86">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="D86">
         <v>4539</v>
@@ -6237,7 +6237,7 @@
         <v>7862</v>
       </c>
       <c r="I86">
-        <v>7848</v>
+        <v>7849</v>
       </c>
       <c r="J86">
         <v>24239</v>
@@ -6409,7 +6409,7 @@
         <v>1864</v>
       </c>
       <c r="C88">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="D88">
         <v>4647</v>
@@ -6501,7 +6501,7 @@
         <v>2149</v>
       </c>
       <c r="C89">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="D89">
         <v>5161</v>
@@ -6593,7 +6593,7 @@
         <v>2068</v>
       </c>
       <c r="C90">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="D90">
         <v>5413</v>
@@ -6685,7 +6685,7 @@
         <v>2115</v>
       </c>
       <c r="C91">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D91">
         <v>5350</v>
@@ -6777,7 +6777,7 @@
         <v>2104</v>
       </c>
       <c r="C92">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="D92">
         <v>5423</v>
@@ -6881,7 +6881,7 @@
         <v>10797</v>
       </c>
       <c r="I93">
-        <v>10383</v>
+        <v>10384</v>
       </c>
       <c r="J93">
         <v>34802</v>
@@ -6961,7 +6961,7 @@
         <v>2309</v>
       </c>
       <c r="C94">
-        <v>2298</v>
+        <v>2295</v>
       </c>
       <c r="D94">
         <v>6080</v>
@@ -7074,7 +7074,7 @@
         <v>2350</v>
       </c>
       <c r="C95">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D95">
         <v>6411</v>
@@ -7187,7 +7187,7 @@
         <v>2316</v>
       </c>
       <c r="C96">
-        <v>2430</v>
+        <v>2424</v>
       </c>
       <c r="D96">
         <v>6328</v>
@@ -7205,7 +7205,7 @@
         <v>10733</v>
       </c>
       <c r="I96">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="J96">
         <v>38169</v>
@@ -7300,7 +7300,7 @@
         <v>2676</v>
       </c>
       <c r="C97">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="D97">
         <v>6463</v>
@@ -7413,7 +7413,7 @@
         <v>2515</v>
       </c>
       <c r="C98">
-        <v>2526</v>
+        <v>2523</v>
       </c>
       <c r="D98">
         <v>6739</v>
@@ -7431,7 +7431,7 @@
         <v>11203</v>
       </c>
       <c r="I98">
-        <v>11216</v>
+        <v>11217</v>
       </c>
       <c r="J98">
         <v>39427</v>
@@ -7526,7 +7526,7 @@
         <v>2574</v>
       </c>
       <c r="C99">
-        <v>2611</v>
+        <v>2608</v>
       </c>
       <c r="D99">
         <v>7277</v>
@@ -7544,7 +7544,7 @@
         <v>12150</v>
       </c>
       <c r="I99">
-        <v>12042</v>
+        <v>12043</v>
       </c>
       <c r="J99">
         <v>38937</v>
@@ -7639,7 +7639,7 @@
         <v>2591</v>
       </c>
       <c r="C100">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D100">
         <v>7480</v>
@@ -7752,7 +7752,7 @@
         <v>2935</v>
       </c>
       <c r="C101">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="D101">
         <v>8392</v>
@@ -7770,7 +7770,7 @@
         <v>14205</v>
       </c>
       <c r="I101">
-        <v>13875</v>
+        <v>13874</v>
       </c>
       <c r="J101">
         <v>37759</v>
@@ -7978,7 +7978,7 @@
         <v>3043</v>
       </c>
       <c r="C103">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D103">
         <v>9694</v>
@@ -8091,7 +8091,7 @@
         <v>3052</v>
       </c>
       <c r="C104">
-        <v>3113</v>
+        <v>3117</v>
       </c>
       <c r="D104">
         <v>9212</v>
@@ -8109,7 +8109,7 @@
         <v>15774</v>
       </c>
       <c r="I104">
-        <v>16152</v>
+        <v>16151</v>
       </c>
       <c r="J104">
         <v>38242</v>
@@ -8204,7 +8204,7 @@
         <v>3423</v>
       </c>
       <c r="C105">
-        <v>3180</v>
+        <v>3184</v>
       </c>
       <c r="D105">
         <v>10026</v>
@@ -8222,7 +8222,7 @@
         <v>16888</v>
       </c>
       <c r="I105">
-        <v>16381</v>
+        <v>16382</v>
       </c>
       <c r="J105">
         <v>40248</v>
@@ -8317,7 +8317,7 @@
         <v>3205</v>
       </c>
       <c r="C106">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="D106">
         <v>10226</v>
@@ -8430,7 +8430,7 @@
         <v>3307</v>
       </c>
       <c r="C107">
-        <v>3312</v>
+        <v>3316</v>
       </c>
       <c r="D107">
         <v>10489</v>
@@ -8448,7 +8448,7 @@
         <v>17425</v>
       </c>
       <c r="I107">
-        <v>17190</v>
+        <v>17189</v>
       </c>
       <c r="J107">
         <v>44742</v>
@@ -8543,7 +8543,7 @@
         <v>3494</v>
       </c>
       <c r="C108">
-        <v>3506</v>
+        <v>3511</v>
       </c>
       <c r="D108">
         <v>10406</v>
@@ -8561,7 +8561,7 @@
         <v>17410</v>
       </c>
       <c r="I108">
-        <v>17801</v>
+        <v>17800</v>
       </c>
       <c r="J108">
         <v>48852</v>
@@ -8769,7 +8769,7 @@
         <v>3747</v>
       </c>
       <c r="C110">
-        <v>3725</v>
+        <v>3729</v>
       </c>
       <c r="D110">
         <v>11507</v>
@@ -8882,7 +8882,7 @@
         <v>3926</v>
       </c>
       <c r="C111">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="D111">
         <v>11550</v>
@@ -8900,7 +8900,7 @@
         <v>18593</v>
       </c>
       <c r="I111">
-        <v>18249</v>
+        <v>18248</v>
       </c>
       <c r="J111">
         <v>57509</v>
@@ -9013,7 +9013,7 @@
         <v>18606</v>
       </c>
       <c r="I112">
-        <v>18735</v>
+        <v>18733</v>
       </c>
       <c r="J112">
         <v>58568</v>
@@ -9108,7 +9108,7 @@
         <v>4480</v>
       </c>
       <c r="C113">
-        <v>4186</v>
+        <v>4188</v>
       </c>
       <c r="D113">
         <v>12831</v>
@@ -9221,7 +9221,7 @@
         <v>4339</v>
       </c>
       <c r="C114">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="D114">
         <v>12181</v>
@@ -9239,7 +9239,7 @@
         <v>20125</v>
       </c>
       <c r="I114">
-        <v>19812</v>
+        <v>19813</v>
       </c>
       <c r="J114">
         <v>60653</v>
@@ -9334,7 +9334,7 @@
         <v>4451</v>
       </c>
       <c r="C115">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="D115">
         <v>12715</v>
@@ -9447,7 +9447,7 @@
         <v>4557</v>
       </c>
       <c r="C116">
-        <v>4627</v>
+        <v>4619</v>
       </c>
       <c r="D116">
         <v>12671</v>
@@ -9560,7 +9560,7 @@
         <v>4985</v>
       </c>
       <c r="C117">
-        <v>4751</v>
+        <v>4745</v>
       </c>
       <c r="D117">
         <v>14185</v>
@@ -9578,7 +9578,7 @@
         <v>22784</v>
       </c>
       <c r="I117">
-        <v>21816</v>
+        <v>21817</v>
       </c>
       <c r="J117">
         <v>64533</v>
@@ -9673,7 +9673,7 @@
         <v>4794</v>
       </c>
       <c r="C118">
-        <v>4810</v>
+        <v>4808</v>
       </c>
       <c r="D118">
         <v>13702</v>
@@ -9691,7 +9691,7 @@
         <v>22955</v>
       </c>
       <c r="I118">
-        <v>22640</v>
+        <v>22641</v>
       </c>
       <c r="J118">
         <v>65849</v>
@@ -9786,7 +9786,7 @@
         <v>4861</v>
       </c>
       <c r="C119">
-        <v>4896</v>
+        <v>4895</v>
       </c>
       <c r="D119">
         <v>13958</v>
@@ -9899,7 +9899,7 @@
         <v>4827</v>
       </c>
       <c r="C120">
-        <v>4974</v>
+        <v>4967</v>
       </c>
       <c r="D120">
         <v>13989</v>
@@ -10012,7 +10012,7 @@
         <v>5371</v>
       </c>
       <c r="C121">
-        <v>5118</v>
+        <v>5114</v>
       </c>
       <c r="D121">
         <v>15640</v>
@@ -10030,7 +10030,7 @@
         <v>25824</v>
       </c>
       <c r="I121">
-        <v>24856</v>
+        <v>24857</v>
       </c>
       <c r="J121">
         <v>69350</v>
@@ -10125,7 +10125,7 @@
         <v>5230</v>
       </c>
       <c r="C122">
-        <v>5286</v>
+        <v>5281</v>
       </c>
       <c r="D122">
         <v>15646</v>
@@ -10143,7 +10143,7 @@
         <v>25703</v>
       </c>
       <c r="I122">
-        <v>25546</v>
+        <v>25547</v>
       </c>
       <c r="J122">
         <v>70310</v>
@@ -10238,7 +10238,7 @@
         <v>5444</v>
       </c>
       <c r="C123">
-        <v>5496</v>
+        <v>5490</v>
       </c>
       <c r="D123">
         <v>16196</v>
@@ -10369,7 +10369,7 @@
         <v>26984</v>
       </c>
       <c r="I124">
-        <v>27928</v>
+        <v>27930</v>
       </c>
       <c r="J124">
         <v>75655</v>
@@ -10464,7 +10464,7 @@
         <v>5858</v>
       </c>
       <c r="C125">
-        <v>5618</v>
+        <v>5623</v>
       </c>
       <c r="D125">
         <v>17818</v>
@@ -10482,7 +10482,7 @@
         <v>29419</v>
       </c>
       <c r="I125">
-        <v>28297</v>
+        <v>28296</v>
       </c>
       <c r="J125">
         <v>77498</v>
@@ -10577,7 +10577,7 @@
         <v>5659</v>
       </c>
       <c r="C126">
-        <v>5731</v>
+        <v>5732</v>
       </c>
       <c r="D126">
         <v>17006</v>
@@ -10690,7 +10690,7 @@
         <v>5743</v>
       </c>
       <c r="C127">
-        <v>5734</v>
+        <v>5740</v>
       </c>
       <c r="D127">
         <v>17030</v>
@@ -10708,7 +10708,7 @@
         <v>28201</v>
       </c>
       <c r="I127">
-        <v>28018</v>
+        <v>28017</v>
       </c>
       <c r="J127">
         <v>80916</v>
@@ -10803,7 +10803,7 @@
         <v>5885</v>
       </c>
       <c r="C128">
-        <v>5904</v>
+        <v>5912</v>
       </c>
       <c r="D128">
         <v>16696</v>
@@ -10821,7 +10821,7 @@
         <v>27602</v>
       </c>
       <c r="I128">
-        <v>28342</v>
+        <v>28345</v>
       </c>
       <c r="J128">
         <v>83417</v>
@@ -10934,7 +10934,7 @@
         <v>30319</v>
       </c>
       <c r="I129">
-        <v>29139</v>
+        <v>29140</v>
       </c>
       <c r="J129">
         <v>83851</v>
@@ -11029,7 +11029,7 @@
         <v>6050</v>
       </c>
       <c r="C130">
-        <v>6020</v>
+        <v>6031</v>
       </c>
       <c r="D130">
         <v>18505</v>
@@ -11047,7 +11047,7 @@
         <v>29789</v>
       </c>
       <c r="I130">
-        <v>29737</v>
+        <v>29738</v>
       </c>
       <c r="J130">
         <v>82627</v>
@@ -11142,7 +11142,7 @@
         <v>6119</v>
       </c>
       <c r="C131">
-        <v>6058</v>
+        <v>6065</v>
       </c>
       <c r="D131">
         <v>19194</v>
@@ -11160,7 +11160,7 @@
         <v>31099</v>
       </c>
       <c r="I131">
-        <v>30694</v>
+        <v>30692</v>
       </c>
       <c r="J131">
         <v>83373</v>
@@ -11255,7 +11255,7 @@
         <v>6125</v>
       </c>
       <c r="C132">
-        <v>6082</v>
+        <v>6086</v>
       </c>
       <c r="D132">
         <v>18779</v>
@@ -11273,7 +11273,7 @@
         <v>30890</v>
       </c>
       <c r="I132">
-        <v>31391</v>
+        <v>31395</v>
       </c>
       <c r="J132">
         <v>87209</v>
@@ -11368,7 +11368,7 @@
         <v>6528</v>
       </c>
       <c r="C133">
-        <v>6186</v>
+        <v>6179</v>
       </c>
       <c r="D133">
         <v>20424</v>
@@ -11386,7 +11386,7 @@
         <v>33566</v>
       </c>
       <c r="I133">
-        <v>32389</v>
+        <v>32394</v>
       </c>
       <c r="J133">
         <v>85719</v>
@@ -11481,7 +11481,7 @@
         <v>6353</v>
       </c>
       <c r="C134">
-        <v>6333</v>
+        <v>6337</v>
       </c>
       <c r="D134">
         <v>20688</v>
@@ -11499,7 +11499,7 @@
         <v>33747</v>
       </c>
       <c r="I134">
-        <v>33589</v>
+        <v>33586</v>
       </c>
       <c r="J134">
         <v>91499</v>
@@ -11594,7 +11594,7 @@
         <v>6345</v>
       </c>
       <c r="C135">
-        <v>6322</v>
+        <v>6329</v>
       </c>
       <c r="D135">
         <v>21425</v>
@@ -11612,7 +11612,7 @@
         <v>34887</v>
       </c>
       <c r="I135">
-        <v>34230</v>
+        <v>34222</v>
       </c>
       <c r="J135">
         <v>89908</v>
@@ -11707,7 +11707,7 @@
         <v>6412</v>
       </c>
       <c r="C136">
-        <v>6370</v>
+        <v>6364</v>
       </c>
       <c r="D136">
         <v>21125</v>
@@ -11725,7 +11725,7 @@
         <v>34554</v>
       </c>
       <c r="I136">
-        <v>34842</v>
+        <v>34853</v>
       </c>
       <c r="J136">
         <v>93121</v>
@@ -11820,7 +11820,7 @@
         <v>6740</v>
       </c>
       <c r="C137">
-        <v>6451</v>
+        <v>6448</v>
       </c>
       <c r="D137">
         <v>22634</v>
@@ -11838,7 +11838,7 @@
         <v>36856</v>
       </c>
       <c r="I137">
-        <v>35499</v>
+        <v>35508</v>
       </c>
       <c r="J137">
         <v>96004</v>
@@ -11933,7 +11933,7 @@
         <v>6531</v>
       </c>
       <c r="C138">
-        <v>6462</v>
+        <v>6465</v>
       </c>
       <c r="D138">
         <v>22552</v>
@@ -11951,7 +11951,7 @@
         <v>36803</v>
       </c>
       <c r="I138">
-        <v>36737</v>
+        <v>36736</v>
       </c>
       <c r="J138">
         <v>95405</v>
@@ -12046,7 +12046,7 @@
         <v>6614</v>
       </c>
       <c r="C139">
-        <v>6597</v>
+        <v>6607</v>
       </c>
       <c r="D139">
         <v>23301</v>
@@ -12064,7 +12064,7 @@
         <v>38159</v>
       </c>
       <c r="I139">
-        <v>37196</v>
+        <v>37180</v>
       </c>
       <c r="J139">
         <v>96166</v>
@@ -12159,7 +12159,7 @@
         <v>6776</v>
       </c>
       <c r="C140">
-        <v>6918</v>
+        <v>6900</v>
       </c>
       <c r="D140">
         <v>24490</v>
@@ -12177,7 +12177,7 @@
         <v>39372</v>
       </c>
       <c r="I140">
-        <v>39780</v>
+        <v>39801</v>
       </c>
       <c r="J140">
         <v>99435</v>
@@ -12272,7 +12272,7 @@
         <v>7575</v>
       </c>
       <c r="C141">
-        <v>7392</v>
+        <v>7373</v>
       </c>
       <c r="D141">
         <v>26853</v>
@@ -12290,7 +12290,7 @@
         <v>43633</v>
       </c>
       <c r="I141">
-        <v>42616</v>
+        <v>42631</v>
       </c>
       <c r="J141">
         <v>102259</v>
@@ -12403,7 +12403,7 @@
         <v>46653</v>
       </c>
       <c r="I142">
-        <v>47036</v>
+        <v>47031</v>
       </c>
       <c r="J142">
         <v>101671</v>
@@ -12498,7 +12498,7 @@
         <v>8708</v>
       </c>
       <c r="C143">
-        <v>8774</v>
+        <v>8793</v>
       </c>
       <c r="D143">
         <v>34629</v>
@@ -12516,7 +12516,7 @@
         <v>52956</v>
       </c>
       <c r="I143">
-        <v>51785</v>
+        <v>51746</v>
       </c>
       <c r="J143">
         <v>92682</v>
@@ -12611,7 +12611,7 @@
         <v>11257</v>
       </c>
       <c r="C144">
-        <v>11613</v>
+        <v>11603</v>
       </c>
       <c r="D144">
         <v>37542</v>
@@ -12629,7 +12629,7 @@
         <v>63423</v>
       </c>
       <c r="I144">
-        <v>65179</v>
+        <v>65228</v>
       </c>
       <c r="J144">
         <v>80015</v>
@@ -12724,7 +12724,7 @@
         <v>12180</v>
       </c>
       <c r="C145">
-        <v>11880</v>
+        <v>11875</v>
       </c>
       <c r="D145">
         <v>39185</v>
@@ -12742,7 +12742,7 @@
         <v>68573</v>
       </c>
       <c r="I145">
-        <v>67340</v>
+        <v>67359</v>
       </c>
       <c r="J145">
         <v>77447</v>
@@ -12837,7 +12837,7 @@
         <v>12555</v>
       </c>
       <c r="C146">
-        <v>12765</v>
+        <v>12782</v>
       </c>
       <c r="D146">
         <v>41127</v>
@@ -12855,7 +12855,7 @@
         <v>70044</v>
       </c>
       <c r="I146">
-        <v>71096</v>
+        <v>71079</v>
       </c>
       <c r="J146">
         <v>75403</v>
@@ -12950,7 +12950,7 @@
         <v>14547</v>
       </c>
       <c r="C147">
-        <v>14575</v>
+        <v>14632</v>
       </c>
       <c r="D147">
         <v>45981</v>
@@ -12968,7 +12968,7 @@
         <v>80610</v>
       </c>
       <c r="I147">
-        <v>78973</v>
+        <v>78902</v>
       </c>
       <c r="J147">
         <v>70843</v>
@@ -13043,16 +13043,16 @@
         <v>25228</v>
       </c>
       <c r="AH147">
-        <v>3421</v>
+        <v>3699</v>
       </c>
       <c r="AI147">
         <v>17611</v>
       </c>
       <c r="AJ147">
-        <v>1318</v>
+        <v>1366</v>
       </c>
       <c r="AK147">
-        <v>282263</v>
+        <v>282493</v>
       </c>
     </row>
   </sheetData>

--- a/5/1/1/2/Agregados saldos 1985 a 2021 - Trimestral.xlsx
+++ b/5/1/1/2/Agregados saldos 1985 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK147"/>
+  <dimension ref="A1:AK148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2820,7 +2823,7 @@
         <v>1480</v>
       </c>
       <c r="I35">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="J35">
         <v>3686</v>
@@ -2938,7 +2941,7 @@
         <v>1738</v>
       </c>
       <c r="I37">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="J37">
         <v>4026</v>
@@ -3292,7 +3295,7 @@
         <v>2237</v>
       </c>
       <c r="I43">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="J43">
         <v>5591</v>
@@ -3469,7 +3472,7 @@
         <v>2522</v>
       </c>
       <c r="I46">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="J46">
         <v>6817</v>
@@ -3587,7 +3590,7 @@
         <v>2470</v>
       </c>
       <c r="I48">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="J48">
         <v>7610</v>
@@ -3646,7 +3649,7 @@
         <v>2860</v>
       </c>
       <c r="I49">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="J49">
         <v>7954</v>
@@ -3764,7 +3767,7 @@
         <v>2991</v>
       </c>
       <c r="I51">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="J51">
         <v>8756</v>
@@ -3823,7 +3826,7 @@
         <v>3001</v>
       </c>
       <c r="I52">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="J52">
         <v>9322</v>
@@ -3941,7 +3944,7 @@
         <v>3128</v>
       </c>
       <c r="I54">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="J54">
         <v>10480</v>
@@ -4000,7 +4003,7 @@
         <v>3171</v>
       </c>
       <c r="I55">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="J55">
         <v>10968</v>
@@ -4059,7 +4062,7 @@
         <v>2781</v>
       </c>
       <c r="I56">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="J56">
         <v>11576</v>
@@ -4118,7 +4121,7 @@
         <v>3149</v>
       </c>
       <c r="I57">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="J57">
         <v>11691</v>
@@ -4236,7 +4239,7 @@
         <v>3343</v>
       </c>
       <c r="I59">
-        <v>3289</v>
+        <v>3292</v>
       </c>
       <c r="J59">
         <v>12368</v>
@@ -4283,7 +4286,7 @@
         <v>886</v>
       </c>
       <c r="C60">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D60">
         <v>1806</v>
@@ -4295,7 +4298,7 @@
         <v>3221</v>
       </c>
       <c r="I60">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="J60">
         <v>12537</v>
@@ -4496,7 +4499,7 @@
         <v>3412</v>
       </c>
       <c r="I63">
-        <v>3352</v>
+        <v>3356</v>
       </c>
       <c r="J63">
         <v>13357</v>
@@ -4570,7 +4573,7 @@
         <v>3396</v>
       </c>
       <c r="I64">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="J64">
         <v>13336</v>
@@ -4644,7 +4647,7 @@
         <v>4145</v>
       </c>
       <c r="I65">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="J65">
         <v>13861</v>
@@ -4718,7 +4721,7 @@
         <v>3978</v>
       </c>
       <c r="I66">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="J66">
         <v>13738</v>
@@ -4792,7 +4795,7 @@
         <v>4179</v>
       </c>
       <c r="I67">
-        <v>4101</v>
+        <v>4105</v>
       </c>
       <c r="J67">
         <v>14085</v>
@@ -4866,7 +4869,7 @@
         <v>3813</v>
       </c>
       <c r="I68">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="J68">
         <v>14053</v>
@@ -5014,7 +5017,7 @@
         <v>4287</v>
       </c>
       <c r="I70">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="J70">
         <v>14624</v>
@@ -5088,7 +5091,7 @@
         <v>4456</v>
       </c>
       <c r="I71">
-        <v>4366</v>
+        <v>4369</v>
       </c>
       <c r="J71">
         <v>14611</v>
@@ -5162,7 +5165,7 @@
         <v>4748</v>
       </c>
       <c r="I72">
-        <v>4848</v>
+        <v>4847</v>
       </c>
       <c r="J72">
         <v>14753</v>
@@ -5236,7 +5239,7 @@
         <v>5063</v>
       </c>
       <c r="I73">
-        <v>4864</v>
+        <v>4863</v>
       </c>
       <c r="J73">
         <v>14693</v>
@@ -5390,7 +5393,7 @@
         <v>5441</v>
       </c>
       <c r="I75">
-        <v>5334</v>
+        <v>5338</v>
       </c>
       <c r="J75">
         <v>13865</v>
@@ -5467,7 +5470,7 @@
         <v>5222</v>
       </c>
       <c r="I76">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="J76">
         <v>13861</v>
@@ -5544,7 +5547,7 @@
         <v>5792</v>
       </c>
       <c r="I77">
-        <v>5629</v>
+        <v>5628</v>
       </c>
       <c r="J77">
         <v>14008</v>
@@ -5621,7 +5624,7 @@
         <v>5970</v>
       </c>
       <c r="I78">
-        <v>5971</v>
+        <v>5972</v>
       </c>
       <c r="J78">
         <v>14728</v>
@@ -5698,7 +5701,7 @@
         <v>6480</v>
       </c>
       <c r="I79">
-        <v>6434</v>
+        <v>6438</v>
       </c>
       <c r="J79">
         <v>14978</v>
@@ -5763,7 +5766,7 @@
         <v>1373</v>
       </c>
       <c r="C80">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="D80">
         <v>3417</v>
@@ -5852,7 +5855,7 @@
         <v>7149</v>
       </c>
       <c r="I81">
-        <v>6910</v>
+        <v>6909</v>
       </c>
       <c r="J81">
         <v>17229</v>
@@ -6006,7 +6009,7 @@
         <v>7413</v>
       </c>
       <c r="I83">
-        <v>7359</v>
+        <v>7364</v>
       </c>
       <c r="J83">
         <v>19853</v>
@@ -6083,7 +6086,7 @@
         <v>7185</v>
       </c>
       <c r="I84">
-        <v>7413</v>
+        <v>7414</v>
       </c>
       <c r="J84">
         <v>20371</v>
@@ -6160,7 +6163,7 @@
         <v>7914</v>
       </c>
       <c r="I85">
-        <v>7648</v>
+        <v>7643</v>
       </c>
       <c r="J85">
         <v>23040</v>
@@ -6237,7 +6240,7 @@
         <v>7862</v>
       </c>
       <c r="I86">
-        <v>7849</v>
+        <v>7851</v>
       </c>
       <c r="J86">
         <v>24239</v>
@@ -6329,7 +6332,7 @@
         <v>8098</v>
       </c>
       <c r="I87">
-        <v>8013</v>
+        <v>8018</v>
       </c>
       <c r="J87">
         <v>24967</v>
@@ -6421,7 +6424,7 @@
         <v>8224</v>
       </c>
       <c r="I88">
-        <v>8383</v>
+        <v>8384</v>
       </c>
       <c r="J88">
         <v>26181</v>
@@ -6513,7 +6516,7 @@
         <v>9221</v>
       </c>
       <c r="I89">
-        <v>8912</v>
+        <v>8905</v>
       </c>
       <c r="J89">
         <v>27764</v>
@@ -6593,7 +6596,7 @@
         <v>2068</v>
       </c>
       <c r="C90">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="D90">
         <v>5413</v>
@@ -6697,7 +6700,7 @@
         <v>9548</v>
       </c>
       <c r="I91">
-        <v>9452</v>
+        <v>9458</v>
       </c>
       <c r="J91">
         <v>30928</v>
@@ -6789,7 +6792,7 @@
         <v>9744</v>
       </c>
       <c r="I92">
-        <v>9844</v>
+        <v>9843</v>
       </c>
       <c r="J92">
         <v>31750</v>
@@ -6869,7 +6872,7 @@
         <v>2429</v>
       </c>
       <c r="C93">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="D93">
         <v>6101</v>
@@ -6881,7 +6884,7 @@
         <v>10797</v>
       </c>
       <c r="I93">
-        <v>10384</v>
+        <v>10377</v>
       </c>
       <c r="J93">
         <v>34802</v>
@@ -7092,7 +7095,7 @@
         <v>10819</v>
       </c>
       <c r="I95">
-        <v>10683</v>
+        <v>10689</v>
       </c>
       <c r="J95">
         <v>36963</v>
@@ -7205,7 +7208,7 @@
         <v>10733</v>
       </c>
       <c r="I96">
-        <v>11001</v>
+        <v>11000</v>
       </c>
       <c r="J96">
         <v>38169</v>
@@ -7318,7 +7321,7 @@
         <v>11093</v>
       </c>
       <c r="I97">
-        <v>10866</v>
+        <v>10860</v>
       </c>
       <c r="J97">
         <v>41172</v>
@@ -7431,7 +7434,7 @@
         <v>11203</v>
       </c>
       <c r="I98">
-        <v>11217</v>
+        <v>11216</v>
       </c>
       <c r="J98">
         <v>39427</v>
@@ -7544,7 +7547,7 @@
         <v>12150</v>
       </c>
       <c r="I99">
-        <v>12043</v>
+        <v>12044</v>
       </c>
       <c r="J99">
         <v>38937</v>
@@ -7770,7 +7773,7 @@
         <v>14205</v>
       </c>
       <c r="I101">
-        <v>13874</v>
+        <v>13870</v>
       </c>
       <c r="J101">
         <v>37759</v>
@@ -7883,7 +7886,7 @@
         <v>14744</v>
       </c>
       <c r="I102">
-        <v>14821</v>
+        <v>14823</v>
       </c>
       <c r="J102">
         <v>38162</v>
@@ -8109,7 +8112,7 @@
         <v>15774</v>
       </c>
       <c r="I104">
-        <v>16151</v>
+        <v>16152</v>
       </c>
       <c r="J104">
         <v>38242</v>
@@ -8204,7 +8207,7 @@
         <v>3423</v>
       </c>
       <c r="C105">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="D105">
         <v>10026</v>
@@ -8222,7 +8225,7 @@
         <v>16888</v>
       </c>
       <c r="I105">
-        <v>16382</v>
+        <v>16383</v>
       </c>
       <c r="J105">
         <v>40248</v>
@@ -8317,7 +8320,7 @@
         <v>3205</v>
       </c>
       <c r="C106">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="D106">
         <v>10226</v>
@@ -8335,7 +8338,7 @@
         <v>16806</v>
       </c>
       <c r="I106">
-        <v>16898</v>
+        <v>16899</v>
       </c>
       <c r="J106">
         <v>42109</v>
@@ -8448,7 +8451,7 @@
         <v>17425</v>
       </c>
       <c r="I107">
-        <v>17189</v>
+        <v>17191</v>
       </c>
       <c r="J107">
         <v>44742</v>
@@ -8561,7 +8564,7 @@
         <v>17410</v>
       </c>
       <c r="I108">
-        <v>17800</v>
+        <v>17802</v>
       </c>
       <c r="J108">
         <v>48852</v>
@@ -8674,7 +8677,7 @@
         <v>18839</v>
       </c>
       <c r="I109">
-        <v>18175</v>
+        <v>18174</v>
       </c>
       <c r="J109">
         <v>51828</v>
@@ -8787,7 +8790,7 @@
         <v>18902</v>
       </c>
       <c r="I110">
-        <v>18736</v>
+        <v>18737</v>
       </c>
       <c r="J110">
         <v>53128</v>
@@ -8900,7 +8903,7 @@
         <v>18593</v>
       </c>
       <c r="I111">
-        <v>18248</v>
+        <v>18249</v>
       </c>
       <c r="J111">
         <v>57509</v>
@@ -8995,7 +8998,7 @@
         <v>4007</v>
       </c>
       <c r="C112">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="D112">
         <v>11121</v>
@@ -9013,7 +9016,7 @@
         <v>18606</v>
       </c>
       <c r="I112">
-        <v>18733</v>
+        <v>18732</v>
       </c>
       <c r="J112">
         <v>58568</v>
@@ -9108,7 +9111,7 @@
         <v>4480</v>
       </c>
       <c r="C113">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="D113">
         <v>12831</v>
@@ -9126,7 +9129,7 @@
         <v>20560</v>
       </c>
       <c r="I113">
-        <v>19563</v>
+        <v>19566</v>
       </c>
       <c r="J113">
         <v>58201</v>
@@ -9352,7 +9355,7 @@
         <v>21266</v>
       </c>
       <c r="I115">
-        <v>20892</v>
+        <v>20893</v>
       </c>
       <c r="J115">
         <v>62591</v>
@@ -9447,7 +9450,7 @@
         <v>4557</v>
       </c>
       <c r="C116">
-        <v>4619</v>
+        <v>4618</v>
       </c>
       <c r="D116">
         <v>12671</v>
@@ -9465,7 +9468,7 @@
         <v>21250</v>
       </c>
       <c r="I116">
-        <v>21523</v>
+        <v>21521</v>
       </c>
       <c r="J116">
         <v>63718</v>
@@ -9560,7 +9563,7 @@
         <v>4985</v>
       </c>
       <c r="C117">
-        <v>4745</v>
+        <v>4744</v>
       </c>
       <c r="D117">
         <v>14185</v>
@@ -9578,7 +9581,7 @@
         <v>22784</v>
       </c>
       <c r="I117">
-        <v>21817</v>
+        <v>21814</v>
       </c>
       <c r="J117">
         <v>64533</v>
@@ -9786,7 +9789,7 @@
         <v>4861</v>
       </c>
       <c r="C119">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="D119">
         <v>13958</v>
@@ -9804,7 +9807,7 @@
         <v>23164</v>
       </c>
       <c r="I119">
-        <v>22827</v>
+        <v>22830</v>
       </c>
       <c r="J119">
         <v>64741</v>
@@ -9899,7 +9902,7 @@
         <v>4827</v>
       </c>
       <c r="C120">
-        <v>4967</v>
+        <v>4966</v>
       </c>
       <c r="D120">
         <v>13989</v>
@@ -9917,7 +9920,7 @@
         <v>23309</v>
       </c>
       <c r="I120">
-        <v>23936</v>
+        <v>23934</v>
       </c>
       <c r="J120">
         <v>66362</v>
@@ -10143,7 +10146,7 @@
         <v>25703</v>
       </c>
       <c r="I122">
-        <v>25547</v>
+        <v>25546</v>
       </c>
       <c r="J122">
         <v>70310</v>
@@ -10256,7 +10259,7 @@
         <v>26774</v>
       </c>
       <c r="I123">
-        <v>26606</v>
+        <v>26604</v>
       </c>
       <c r="J123">
         <v>71588</v>
@@ -10351,7 +10354,7 @@
         <v>5402</v>
       </c>
       <c r="C124">
-        <v>5557</v>
+        <v>5558</v>
       </c>
       <c r="D124">
         <v>16084</v>
@@ -10369,7 +10372,7 @@
         <v>26984</v>
       </c>
       <c r="I124">
-        <v>27930</v>
+        <v>27932</v>
       </c>
       <c r="J124">
         <v>75655</v>
@@ -10464,7 +10467,7 @@
         <v>5858</v>
       </c>
       <c r="C125">
-        <v>5623</v>
+        <v>5624</v>
       </c>
       <c r="D125">
         <v>17818</v>
@@ -10482,7 +10485,7 @@
         <v>29419</v>
       </c>
       <c r="I125">
-        <v>28296</v>
+        <v>28298</v>
       </c>
       <c r="J125">
         <v>77498</v>
@@ -10708,7 +10711,7 @@
         <v>28201</v>
       </c>
       <c r="I127">
-        <v>28017</v>
+        <v>28020</v>
       </c>
       <c r="J127">
         <v>80916</v>
@@ -10821,7 +10824,7 @@
         <v>27602</v>
       </c>
       <c r="I128">
-        <v>28345</v>
+        <v>28350</v>
       </c>
       <c r="J128">
         <v>83417</v>
@@ -10934,7 +10937,7 @@
         <v>30319</v>
       </c>
       <c r="I129">
-        <v>29140</v>
+        <v>29144</v>
       </c>
       <c r="J129">
         <v>83851</v>
@@ -11029,7 +11032,7 @@
         <v>6050</v>
       </c>
       <c r="C130">
-        <v>6031</v>
+        <v>6032</v>
       </c>
       <c r="D130">
         <v>18505</v>
@@ -11047,7 +11050,7 @@
         <v>29789</v>
       </c>
       <c r="I130">
-        <v>29738</v>
+        <v>29745</v>
       </c>
       <c r="J130">
         <v>82627</v>
@@ -11142,7 +11145,7 @@
         <v>6119</v>
       </c>
       <c r="C131">
-        <v>6065</v>
+        <v>6064</v>
       </c>
       <c r="D131">
         <v>19194</v>
@@ -11160,7 +11163,7 @@
         <v>31099</v>
       </c>
       <c r="I131">
-        <v>30692</v>
+        <v>30689</v>
       </c>
       <c r="J131">
         <v>83373</v>
@@ -11255,7 +11258,7 @@
         <v>6125</v>
       </c>
       <c r="C132">
-        <v>6086</v>
+        <v>6087</v>
       </c>
       <c r="D132">
         <v>18779</v>
@@ -11273,7 +11276,7 @@
         <v>30890</v>
       </c>
       <c r="I132">
-        <v>31395</v>
+        <v>31409</v>
       </c>
       <c r="J132">
         <v>87209</v>
@@ -11386,7 +11389,7 @@
         <v>33566</v>
       </c>
       <c r="I133">
-        <v>32394</v>
+        <v>32398</v>
       </c>
       <c r="J133">
         <v>85719</v>
@@ -11481,7 +11484,7 @@
         <v>6353</v>
       </c>
       <c r="C134">
-        <v>6337</v>
+        <v>6336</v>
       </c>
       <c r="D134">
         <v>20688</v>
@@ -11499,7 +11502,7 @@
         <v>33747</v>
       </c>
       <c r="I134">
-        <v>33586</v>
+        <v>33588</v>
       </c>
       <c r="J134">
         <v>91499</v>
@@ -11594,7 +11597,7 @@
         <v>6345</v>
       </c>
       <c r="C135">
-        <v>6329</v>
+        <v>6327</v>
       </c>
       <c r="D135">
         <v>21425</v>
@@ -11612,7 +11615,7 @@
         <v>34887</v>
       </c>
       <c r="I135">
-        <v>34222</v>
+        <v>34208</v>
       </c>
       <c r="J135">
         <v>89908</v>
@@ -11707,7 +11710,7 @@
         <v>6412</v>
       </c>
       <c r="C136">
-        <v>6364</v>
+        <v>6368</v>
       </c>
       <c r="D136">
         <v>21125</v>
@@ -11725,7 +11728,7 @@
         <v>34554</v>
       </c>
       <c r="I136">
-        <v>34853</v>
+        <v>34892</v>
       </c>
       <c r="J136">
         <v>93121</v>
@@ -11820,7 +11823,7 @@
         <v>6740</v>
       </c>
       <c r="C137">
-        <v>6448</v>
+        <v>6450</v>
       </c>
       <c r="D137">
         <v>22634</v>
@@ -11838,7 +11841,7 @@
         <v>36856</v>
       </c>
       <c r="I137">
-        <v>35508</v>
+        <v>35528</v>
       </c>
       <c r="J137">
         <v>96004</v>
@@ -11933,7 +11936,7 @@
         <v>6531</v>
       </c>
       <c r="C138">
-        <v>6465</v>
+        <v>6464</v>
       </c>
       <c r="D138">
         <v>22552</v>
@@ -11951,7 +11954,7 @@
         <v>36803</v>
       </c>
       <c r="I138">
-        <v>36736</v>
+        <v>36738</v>
       </c>
       <c r="J138">
         <v>95405</v>
@@ -12046,7 +12049,7 @@
         <v>6614</v>
       </c>
       <c r="C139">
-        <v>6607</v>
+        <v>6604</v>
       </c>
       <c r="D139">
         <v>23301</v>
@@ -12064,7 +12067,7 @@
         <v>38159</v>
       </c>
       <c r="I139">
-        <v>37180</v>
+        <v>37151</v>
       </c>
       <c r="J139">
         <v>96166</v>
@@ -12159,7 +12162,7 @@
         <v>6776</v>
       </c>
       <c r="C140">
-        <v>6900</v>
+        <v>6910</v>
       </c>
       <c r="D140">
         <v>24490</v>
@@ -12177,7 +12180,7 @@
         <v>39372</v>
       </c>
       <c r="I140">
-        <v>39801</v>
+        <v>39888</v>
       </c>
       <c r="J140">
         <v>99435</v>
@@ -12272,7 +12275,7 @@
         <v>7575</v>
       </c>
       <c r="C141">
-        <v>7373</v>
+        <v>7375</v>
       </c>
       <c r="D141">
         <v>26853</v>
@@ -12290,7 +12293,7 @@
         <v>43633</v>
       </c>
       <c r="I141">
-        <v>42631</v>
+        <v>42651</v>
       </c>
       <c r="J141">
         <v>102259</v>
@@ -12385,7 +12388,7 @@
         <v>7734</v>
       </c>
       <c r="C142">
-        <v>7828</v>
+        <v>7827</v>
       </c>
       <c r="D142">
         <v>29536</v>
@@ -12403,7 +12406,7 @@
         <v>46653</v>
       </c>
       <c r="I142">
-        <v>47031</v>
+        <v>47029</v>
       </c>
       <c r="J142">
         <v>101671</v>
@@ -12498,7 +12501,7 @@
         <v>8708</v>
       </c>
       <c r="C143">
-        <v>8793</v>
+        <v>8786</v>
       </c>
       <c r="D143">
         <v>34629</v>
@@ -12516,7 +12519,7 @@
         <v>52956</v>
       </c>
       <c r="I143">
-        <v>51746</v>
+        <v>51682</v>
       </c>
       <c r="J143">
         <v>92682</v>
@@ -12611,7 +12614,7 @@
         <v>11257</v>
       </c>
       <c r="C144">
-        <v>11603</v>
+        <v>11632</v>
       </c>
       <c r="D144">
         <v>37542</v>
@@ -12629,7 +12632,7 @@
         <v>63423</v>
       </c>
       <c r="I144">
-        <v>65228</v>
+        <v>65450</v>
       </c>
       <c r="J144">
         <v>80015</v>
@@ -12724,7 +12727,7 @@
         <v>12180</v>
       </c>
       <c r="C145">
-        <v>11875</v>
+        <v>11883</v>
       </c>
       <c r="D145">
         <v>39185</v>
@@ -12742,7 +12745,7 @@
         <v>68573</v>
       </c>
       <c r="I145">
-        <v>67359</v>
+        <v>67414</v>
       </c>
       <c r="J145">
         <v>77447</v>
@@ -12837,7 +12840,7 @@
         <v>12555</v>
       </c>
       <c r="C146">
-        <v>12782</v>
+        <v>12780</v>
       </c>
       <c r="D146">
         <v>41127</v>
@@ -12855,7 +12858,7 @@
         <v>70044</v>
       </c>
       <c r="I146">
-        <v>71079</v>
+        <v>71073</v>
       </c>
       <c r="J146">
         <v>75403</v>
@@ -12950,7 +12953,7 @@
         <v>14547</v>
       </c>
       <c r="C147">
-        <v>14632</v>
+        <v>14620</v>
       </c>
       <c r="D147">
         <v>45981</v>
@@ -12968,7 +12971,7 @@
         <v>80610</v>
       </c>
       <c r="I147">
-        <v>78902</v>
+        <v>78786</v>
       </c>
       <c r="J147">
         <v>70843</v>
@@ -13053,6 +13056,119 @@
       </c>
       <c r="AK147">
         <v>282493</v>
+      </c>
+    </row>
+    <row r="148" spans="1:37">
+      <c r="A148" t="s">
+        <v>183</v>
+      </c>
+      <c r="B148">
+        <v>15093</v>
+      </c>
+      <c r="C148">
+        <v>15446</v>
+      </c>
+      <c r="D148">
+        <v>45735</v>
+      </c>
+      <c r="E148">
+        <v>26433</v>
+      </c>
+      <c r="F148">
+        <v>19302</v>
+      </c>
+      <c r="G148">
+        <v>19017</v>
+      </c>
+      <c r="H148">
+        <v>79845</v>
+      </c>
+      <c r="I148">
+        <v>81944</v>
+      </c>
+      <c r="J148">
+        <v>73052</v>
+      </c>
+      <c r="K148">
+        <v>44918</v>
+      </c>
+      <c r="L148">
+        <v>39607</v>
+      </c>
+      <c r="M148">
+        <v>5312</v>
+      </c>
+      <c r="N148">
+        <v>27554</v>
+      </c>
+      <c r="O148">
+        <v>579</v>
+      </c>
+      <c r="P148">
+        <v>11241</v>
+      </c>
+      <c r="Q148">
+        <v>22586</v>
+      </c>
+      <c r="R148">
+        <v>1451</v>
+      </c>
+      <c r="S148">
+        <v>13944</v>
+      </c>
+      <c r="T148">
+        <v>102</v>
+      </c>
+      <c r="U148">
+        <v>174127</v>
+      </c>
+      <c r="V148">
+        <v>30114</v>
+      </c>
+      <c r="W148">
+        <v>15358</v>
+      </c>
+      <c r="X148">
+        <v>15088</v>
+      </c>
+      <c r="Y148">
+        <v>271</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>37008</v>
+      </c>
+      <c r="AB148">
+        <v>17850</v>
+      </c>
+      <c r="AC148">
+        <v>19158</v>
+      </c>
+      <c r="AD148">
+        <v>115</v>
+      </c>
+      <c r="AE148">
+        <v>323</v>
+      </c>
+      <c r="AF148">
+        <v>30794</v>
+      </c>
+      <c r="AG148">
+        <v>25494</v>
+      </c>
+      <c r="AH148">
+        <v>3713</v>
+      </c>
+      <c r="AI148">
+        <v>18283</v>
+      </c>
+      <c r="AJ148">
+        <v>1374</v>
+      </c>
+      <c r="AK148">
+        <v>297390</v>
       </c>
     </row>
   </sheetData>
